--- a/biology/Botanique/Salix_apennina/Salix_apennina.xlsx
+++ b/biology/Botanique/Salix_apennina/Salix_apennina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix apennina, le Saule des Apennins, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un arbrisseau présent en Europe.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix appenina, orthographe, var. Skvortsov[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix appenina, orthographe, var. Skvortsov.</t>
         </is>
       </c>
     </row>
@@ -541,11 +555,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est très ressemblante à Salix myrsinifolia, mais mesure plutôt de 2 à 4 m de haut. La face inférieure des feuilles est entièrement pruineuse, à nervures saillantes. La nervure médiane possède des poils brun rougeâtre en été ; la face supérieure est glabre et vert foncé. Les chatons apparaissent de 5 à 7 jours avant les feuilles. Le style est plus court que le pédicelle de l'ovaire, il est long de 0,5 à 0,9 mm (chez Salix myrsinifolia :  0,7–1,5 mm). Le bois sous l'écorce est muni de nombreuses stries saillantes, plus nombreuses et plus longues que chez Salix myrsinifolia[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est très ressemblante à Salix myrsinifolia, mais mesure plutôt de 2 à 4 m de haut. La face inférieure des feuilles est entièrement pruineuse, à nervures saillantes. La nervure médiane possède des poils brun rougeâtre en été ; la face supérieure est glabre et vert foncé. Les chatons apparaissent de 5 à 7 jours avant les feuilles. Le style est plus court que le pédicelle de l'ovaire, il est long de 0,5 à 0,9 mm (chez Salix myrsinifolia :  0,7–1,5 mm). Le bois sous l'écorce est muni de nombreuses stries saillantes, plus nombreuses et plus longues que chez Salix myrsinifolia.
 Salix apennina fleurit en avril et mai.
-En France, en Italie et en Suisse, l'espèce est présente dans les clairières humides, les marais, les collines subalpines, le TI méridional et plus généralement dans les Apennins[2].
+En France, en Italie et en Suisse, l'espèce est présente dans les clairières humides, les marais, les collines subalpines, le TI méridional et plus généralement dans les Apennins.
 </t>
         </is>
       </c>
